--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W6.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A269B8DA-E02F-4035-BF22-6066EDF6292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,12 +79,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,12 +141,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,27 +761,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>3211286</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>65985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3763F8AF-4005-204A-BC62-F3C928CE33DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8105775"/>
-          <a:ext cx="8820150" cy="10629900"/>
+          <a:off x="0" y="8240486"/>
+          <a:ext cx="8697686" cy="11354470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,6 +881,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -903,6 +933,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1078,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1473,13 +1520,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1488,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2044,13 +2091,13 @@
     <mergeCell ref="E5:J25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1"/>
-    <hyperlink ref="D27" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -2058,10 +2105,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -2632,13 +2679,13 @@
     <mergeCell ref="E5:J26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s"/>
-    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
